--- a/config_6.22/act_hhl_ty_config.xlsx
+++ b/config_6.22/act_hhl_ty_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="config_infor" sheetId="9" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
   <si>
     <t>line|</t>
   </si>
@@ -109,7 +109,7 @@
     <t>500元话费</t>
   </si>
   <si>
-    <t>com_award_icon_hfsp</t>
+    <t>com_award_icon_hf500</t>
   </si>
   <si>
     <t>actp_prop_exchange_nor_v5</t>
@@ -118,13 +118,16 @@
     <t>100元话费</t>
   </si>
   <si>
+    <t>com_award_icon_hf100</t>
+  </si>
+  <si>
     <t>actp_prop_exchange_nor_v4</t>
   </si>
   <si>
     <t>700万金币</t>
   </si>
   <si>
-    <t>ty_icon_jb_30y</t>
+    <t>pay_icon_gold8</t>
   </si>
   <si>
     <t>actp_prop_exchange_nor_v3</t>
@@ -133,34 +136,46 @@
     <t>50元话费</t>
   </si>
   <si>
+    <t>com_award_icon_hf50</t>
+  </si>
+  <si>
     <t>actp_prop_exchange_nor</t>
   </si>
   <si>
     <t>400万金币</t>
   </si>
   <si>
-    <t>ty_icon_jb_18y</t>
+    <t>pay_icon_gold7</t>
   </si>
   <si>
     <t>20元话费</t>
   </si>
   <si>
+    <t>com_award_icon_hf20</t>
+  </si>
+  <si>
     <t>150万小游戏币</t>
   </si>
   <si>
-    <t>ty_icon_yxb_2</t>
+    <t>ty_icon_yxb_5</t>
   </si>
   <si>
     <t>10元话费</t>
   </si>
   <si>
+    <t>com_award_icon_hf10</t>
+  </si>
+  <si>
     <t>50万鱼币</t>
   </si>
   <si>
-    <t>ty_icon_yb_3</t>
+    <t>ty_icon_yb_5</t>
   </si>
   <si>
     <t>2元话费</t>
+  </si>
+  <si>
+    <t>com_award_icon_hf2</t>
   </si>
   <si>
     <t>ID</t>
@@ -183,10 +198,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -206,6 +221,43 @@
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -216,10 +268,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -231,15 +284,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,14 +338,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -270,53 +346,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,21 +366,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -379,181 +394,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,41 +579,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -620,23 +600,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -664,6 +640,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -675,7 +690,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -684,16 +699,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -702,120 +717,120 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -866,9 +881,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1230,7 +1242,7 @@
   <sheetPr/>
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
@@ -1299,16 +1311,16 @@
       <c r="E2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="17">
         <v>1624320000</v>
       </c>
-      <c r="G2" s="18">
+      <c r="G2" s="17">
         <v>1624895999</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="19" t="s">
         <v>15</v>
       </c>
       <c r="K2" s="1" t="s">
@@ -1321,7 +1333,7 @@
       <c r="E3" s="9"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
-      <c r="I3" s="19"/>
+      <c r="I3" s="18"/>
     </row>
     <row r="4" spans="4:5">
       <c r="D4" s="9"/>
@@ -1338,8 +1350,8 @@
   <sheetPr/>
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1405,7 +1417,7 @@
         <v>26</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" s="5">
         <v>60000</v>
@@ -1414,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1422,10 +1434,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" s="5">
         <v>42000</v>
@@ -1434,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1442,10 +1454,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D5" s="5">
         <v>30000</v>
@@ -1454,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1462,10 +1474,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D6" s="5">
         <v>24000</v>
@@ -1474,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1482,10 +1494,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D7" s="5">
         <v>12000</v>
@@ -1494,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1502,10 +1514,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D8" s="5">
         <v>9000</v>
@@ -1514,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1522,10 +1534,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D9" s="5">
         <v>6000</v>
@@ -1534,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1542,10 +1554,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D10" s="5">
         <v>3000</v>
@@ -1554,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1562,10 +1574,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="D11" s="5">
         <v>1200</v>
@@ -1574,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1766,19 +1778,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:3">
